--- a/Eat_Data.xlsx
+++ b/Eat_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobford/Documents/GitHub/Blog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E606B692-4C97-BC48-BB54-E132AA95F8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBCB884-452E-D04A-BCAD-71086CA10F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="18660" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -264,6 +264,27 @@
   </si>
   <si>
     <t>Not that hard to choose here</t>
+  </si>
+  <si>
+    <t>Lawrence BBQ</t>
+  </si>
+  <si>
+    <t>RTP</t>
+  </si>
+  <si>
+    <t>Brisket, pulled pork, somehow the most amazing brussel sprouts you'll ever have!</t>
+  </si>
+  <si>
+    <t>Bottle Theory</t>
+  </si>
+  <si>
+    <t>Apex</t>
+  </si>
+  <si>
+    <t>Amazing beer selection, super solid food truck lineup, friendly owners :)</t>
+  </si>
+  <si>
+    <t>Bottle shop</t>
   </si>
 </sst>
 </file>
@@ -586,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1080,6 +1101,46 @@
         <v>-78.877239100180304</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="1">
+        <v>35.8974165430838</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-78.872526115339994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="1">
+        <v>35.777919772553901</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-78.905336444831505</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Eat_Data.xlsx
+++ b/Eat_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobford/Documents/GitHub/Blog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBCB884-452E-D04A-BCAD-71086CA10F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D13FD7-287E-0645-B1CF-8103CB152351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="18660" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -610,7 +610,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
